--- a/Individual State Requirements for Tech Acceptance/0 - State Technology Acceptance Criteria Tracker.xlsx
+++ b/Individual State Requirements for Tech Acceptance/0 - State Technology Acceptance Criteria Tracker.xlsx
@@ -1560,9 +1560,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDF51CB858BC3E47BE8B6BE0694C1493" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3fcd3c30c781a2961699b18c1d3bb33">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9714fff4-e216-4e55-a326-cddc9f9d376a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a269c60d55401d68b79908c96fb4139" ns2:_="">
-    <xsd:import namespace="9714fff4-e216-4e55-a326-cddc9f9d376a"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010017DCE428FED8DC4D83B976C758312F33" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="07dc1b9786ef5192f1aae6e516a1f660">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a5e292a-7846-4fa4-b1f2-bc10a05665ab" xmlns:ns3="e90fa64b-76f3-4078-8d6c-6af4a348fae4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e90bfa5a27e4e4e1e662c7ac75bc0307" ns2:_="" ns3:_="">
+    <xsd:import namespace="7a5e292a-7846-4fa4-b1f2-bc10a05665ab"/>
+    <xsd:import namespace="e90fa64b-76f3-4078-8d6c-6af4a348fae4"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1572,8 +1573,11 @@
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1581,7 +1585,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="9714fff4-e216-4e55-a326-cddc9f9d376a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7a5e292a-7846-4fa4-b1f2-bc10a05665ab" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -1599,15 +1603,44 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="116df305-adfd-4c0b-944e-20c5738546d9" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="12" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e90fa64b-76f3-4078-8d6c-6af4a348fae4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{f5173fe4-0b07-4ea3-abb0-74d07cd529b5}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e90fa64b-76f3-4078-8d6c-6af4a348fae4">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1711,7 +1744,12 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a5e292a-7846-4fa4-b1f2-bc10a05665ab">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e90fa64b-76f3-4078-8d6c-6af4a348fae4" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -1725,7 +1763,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{649393E9-8BDB-4E88-B6F8-86B6A47B2144}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{366F3EF7-7C29-42BD-B9F6-40882FEE812D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
